--- a/Horas/Enero 2012.xlsx
+++ b/Horas/Enero 2012.xlsx
@@ -592,20 +592,20 @@
         <v>40545</v>
       </c>
       <c r="C2" s="14">
-        <v>0.375</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="D2" s="14">
-        <v>0.70833333333333337</v>
+        <v>0.76041666666666663</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="12">
-        <f t="shared" ref="F2:F24" si="0">IF(MINUTE(C2)&lt;=MINUTE(D2),IF(E2="NO",HOUR(D2)-HOUR(C2),HOUR(D2)-HOUR(C2)-1),IF(E2="NO",HOUR(D2)-HOUR(C2)-1,HOUR(D2)-HOUR(C2)-1-1))</f>
+        <f t="shared" ref="F2:F10" si="0">IF(MINUTE(C2)&lt;=MINUTE(D2),IF(E2="NO",HOUR(D2)-HOUR(C2),HOUR(D2)-HOUR(C2)-1),IF(E2="NO",HOUR(D2)-HOUR(C2)-1,HOUR(D2)-HOUR(C2)-1-1))</f>
         <v>8</v>
       </c>
       <c r="G2" s="12">
-        <f t="shared" ref="G2:G24" si="1">IF(MINUTE(D2)-MINUTE(C2)&lt;0,MINUTE(D2)-MINUTE(C2)+60,MINUTE(D2)-MINUTE(C2))</f>
+        <f t="shared" ref="G2:G23" si="1">IF(MINUTE(D2)-MINUTE(C2)&lt;0,MINUTE(D2)-MINUTE(C2)+60,MINUTE(D2)-MINUTE(C2))</f>
         <v>0</v>
       </c>
     </row>
@@ -617,21 +617,21 @@
         <v>40546</v>
       </c>
       <c r="C3" s="14">
-        <v>0.375</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D3" s="14">
-        <v>0.70833333333333337</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="12">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="6"/>
@@ -644,10 +644,10 @@
         <v>40547</v>
       </c>
       <c r="C4" s="14">
-        <v>0.375</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="D4" s="14">
-        <v>0.70833333333333304</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>13</v>
@@ -1145,11 +1145,11 @@
       </c>
       <c r="F24" s="13">
         <f>SUM(F2:F23)</f>
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G24" s="10">
         <f>SUM(G2:G23)/60</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">

--- a/Horas/Enero 2012.xlsx
+++ b/Horas/Enero 2012.xlsx
@@ -647,7 +647,7 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="D4" s="14">
-        <v>0.77777777777777779</v>
+        <v>0.78125</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>13</v>
@@ -658,7 +658,7 @@
       </c>
       <c r="G4" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1149,7 +1149,7 @@
       </c>
       <c r="G24" s="10">
         <f>SUM(G2:G23)/60</f>
-        <v>0.5</v>
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">

--- a/Horas/Enero 2012.xlsx
+++ b/Horas/Enero 2012.xlsx
@@ -617,7 +617,7 @@
         <v>40546</v>
       </c>
       <c r="C3" s="14">
-        <v>0.45833333333333331</v>
+        <v>0.44097222222222227</v>
       </c>
       <c r="D3" s="14">
         <v>0.77083333333333337</v>
@@ -631,7 +631,7 @@
       </c>
       <c r="G3" s="12">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="6"/>
@@ -669,10 +669,10 @@
         <v>40548</v>
       </c>
       <c r="C5" s="14">
-        <v>0.375</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D5" s="14">
-        <v>0.70833333333333304</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>13</v>
@@ -683,7 +683,7 @@
       </c>
       <c r="G5" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1149,7 +1149,7 @@
       </c>
       <c r="G24" s="10">
         <f>SUM(G2:G23)/60</f>
-        <v>0.58333333333333337</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="F25" s="16">
         <f>ROUND(SUM(F24:G24),0)</f>
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G25" s="17"/>
     </row>

--- a/Horas/Enero 2012.xlsx
+++ b/Horas/Enero 2012.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="16">
   <si>
     <t>Fecha</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Día</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -694,17 +697,17 @@
         <v>40549</v>
       </c>
       <c r="C6" s="14">
-        <v>0.375</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="D6" s="14">
-        <v>0.70833333333333304</v>
+        <v>0.68055555555555547</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="12">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G6" s="12">
         <f t="shared" si="1"/>
@@ -721,10 +724,10 @@
         <v>40552</v>
       </c>
       <c r="C7" s="14">
-        <v>0.375</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="D7" s="14">
-        <v>0.70833333333333304</v>
+        <v>0.8125</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>13</v>
@@ -746,17 +749,17 @@
         <v>40553</v>
       </c>
       <c r="C8" s="14">
-        <v>0.375</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="D8" s="14">
-        <v>0.70833333333333304</v>
+        <v>0.69444444444444453</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="12">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G8" s="12">
         <f t="shared" si="1"/>
@@ -772,17 +775,17 @@
         <v>40554</v>
       </c>
       <c r="C9" s="14">
-        <v>0.375</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="D9" s="14">
-        <v>0.70833333333333304</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="12">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G9" s="12">
         <f t="shared" si="1"/>
@@ -797,21 +800,21 @@
         <v>40555</v>
       </c>
       <c r="C10" s="14">
-        <v>0.375</v>
+        <v>0.47222222222222227</v>
       </c>
       <c r="D10" s="14">
-        <v>0.70833333333333304</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="12">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -822,10 +825,10 @@
         <v>40556</v>
       </c>
       <c r="C11" s="14">
-        <v>0.375</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="D11" s="14">
-        <v>0.70833333333333304</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>13</v>
@@ -847,17 +850,17 @@
         <v>40559</v>
       </c>
       <c r="C12" s="14">
-        <v>0.375</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="D12" s="14">
-        <v>0.70833333333333304</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="12">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G12" s="12">
         <f t="shared" si="1"/>
@@ -871,21 +874,19 @@
       <c r="B13" s="2">
         <v>40560</v>
       </c>
-      <c r="C13" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D13" s="14">
-        <v>0.70833333333333304</v>
+      <c r="C13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F13" s="12">
-        <f t="shared" si="3"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G13" s="12">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -900,18 +901,18 @@
         <v>0.375</v>
       </c>
       <c r="D14" s="14">
-        <v>0.70833333333333304</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="12">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G14" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -925,18 +926,18 @@
         <v>0.375</v>
       </c>
       <c r="D15" s="14">
-        <v>0.70833333333333304</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="12">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G15" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -950,18 +951,18 @@
         <v>0.375</v>
       </c>
       <c r="D16" s="14">
-        <v>0.70833333333333304</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="12">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G16" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -975,18 +976,18 @@
         <v>0.375</v>
       </c>
       <c r="D17" s="14">
-        <v>0.70833333333333304</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="12">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G17" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1000,18 +1001,18 @@
         <v>0.375</v>
       </c>
       <c r="D18" s="14">
-        <v>0.70833333333333304</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="12">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G18" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1025,18 +1026,18 @@
         <v>0.375</v>
       </c>
       <c r="D19" s="14">
-        <v>0.70833333333333304</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="12">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G19" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1050,18 +1051,18 @@
         <v>0.375</v>
       </c>
       <c r="D20" s="14">
-        <v>0.70833333333333304</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="12">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G20" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1075,18 +1076,18 @@
         <v>0.375</v>
       </c>
       <c r="D21" s="14">
-        <v>0.70833333333333304</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="12">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G21" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1100,18 +1101,18 @@
         <v>0.375</v>
       </c>
       <c r="D22" s="14">
-        <v>0.70833333333333304</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="12">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G22" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1125,18 +1126,18 @@
         <v>0.375</v>
       </c>
       <c r="D23" s="14">
-        <v>0.70833333333333304</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="12">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G23" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1145,11 +1146,11 @@
       </c>
       <c r="F24" s="13">
         <f>SUM(F2:F23)</f>
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G24" s="10">
         <f>SUM(G2:G23)/60</f>
-        <v>1.5</v>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1158,7 +1159,7 @@
       </c>
       <c r="F25" s="16">
         <f>ROUND(SUM(F24:G24),0)</f>
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G25" s="17"/>
     </row>

--- a/Horas/Enero 2012.xlsx
+++ b/Horas/Enero 2012.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="17">
   <si>
     <t>Fecha</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Sábado</t>
   </si>
 </sst>
 </file>
@@ -553,7 +556,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -608,7 +611,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="12">
-        <f t="shared" ref="G2:G23" si="1">IF(MINUTE(D2)-MINUTE(C2)&lt;0,MINUTE(D2)-MINUTE(C2)+60,MINUTE(D2)-MINUTE(C2))</f>
+        <f t="shared" ref="G2:G24" si="1">IF(MINUTE(D2)-MINUTE(C2)&lt;0,MINUTE(D2)-MINUTE(C2)+60,MINUTE(D2)-MINUTE(C2))</f>
         <v>0</v>
       </c>
     </row>
@@ -803,18 +806,18 @@
         <v>0.47222222222222227</v>
       </c>
       <c r="D10" s="14">
-        <v>0.72916666666666663</v>
+        <v>0.71875</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="12">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -828,18 +831,18 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D11" s="14">
-        <v>0.72916666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="12">
-        <f t="shared" ref="F11:F23" si="3">IF(MINUTE(C11)&lt;=MINUTE(D11),IF(E11="NO",HOUR(D11)-HOUR(C11),HOUR(D11)-HOUR(C11)-1),IF(E11="NO",HOUR(D11)-HOUR(C11)-1,HOUR(D11)-HOUR(C11)-1-1))</f>
-        <v>8</v>
+        <f t="shared" ref="F11:F24" si="3">IF(MINUTE(C11)&lt;=MINUTE(D11),IF(E11="NO",HOUR(D11)-HOUR(C11),HOUR(D11)-HOUR(C11)-1),IF(E11="NO",HOUR(D11)-HOUR(C11)-1,HOUR(D11)-HOUR(C11)-1-1))</f>
+        <v>7</v>
       </c>
       <c r="G11" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -853,18 +856,18 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D12" s="14">
-        <v>0.77083333333333337</v>
+        <v>0.76041666666666663</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="12">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G12" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -898,21 +901,21 @@
         <v>40561</v>
       </c>
       <c r="C14" s="14">
-        <v>0.375</v>
+        <v>0.40277777777777773</v>
       </c>
       <c r="D14" s="14">
-        <v>0.77083333333333337</v>
+        <v>0.81944444444444453</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="12">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G14" s="12">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -923,21 +926,21 @@
         <v>40562</v>
       </c>
       <c r="C15" s="14">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="D15" s="14">
-        <v>0.77083333333333337</v>
+        <v>0.69444444444444453</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="12">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G15" s="12">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -948,21 +951,21 @@
         <v>40563</v>
       </c>
       <c r="C16" s="14">
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="D16" s="14">
-        <v>0.77083333333333337</v>
+        <v>0.71527777777777779</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="12">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G16" s="12">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -973,10 +976,10 @@
         <v>40566</v>
       </c>
       <c r="C17" s="14">
-        <v>0.375</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D17" s="14">
-        <v>0.77083333333333337</v>
+        <v>0.8125</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>13</v>
@@ -998,10 +1001,10 @@
         <v>40567</v>
       </c>
       <c r="C18" s="14">
-        <v>0.375</v>
+        <v>0.40972222222222227</v>
       </c>
       <c r="D18" s="14">
-        <v>0.77083333333333337</v>
+        <v>0.8125</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>13</v>
@@ -1012,7 +1015,7 @@
       </c>
       <c r="G18" s="12">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1026,18 +1029,18 @@
         <v>0.375</v>
       </c>
       <c r="D19" s="14">
-        <v>0.77083333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="12">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G19" s="12">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1076,96 +1079,121 @@
         <v>0.375</v>
       </c>
       <c r="D21" s="14">
-        <v>0.77083333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="12">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G21" s="12">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B22" s="2">
-        <v>40573</v>
+        <v>40571</v>
       </c>
       <c r="C22" s="14">
         <v>0.375</v>
       </c>
       <c r="D22" s="14">
-        <v>0.77083333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="12">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <f t="shared" ref="F22" si="4">IF(MINUTE(C22)&lt;=MINUTE(D22),IF(E22="NO",HOUR(D22)-HOUR(C22),HOUR(D22)-HOUR(C22)-1),IF(E22="NO",HOUR(D22)-HOUR(C22)-1,HOUR(D22)-HOUR(C22)-1-1))</f>
+        <v>10</v>
       </c>
       <c r="G22" s="12">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <f t="shared" ref="G22" si="5">IF(MINUTE(D22)-MINUTE(C22)&lt;0,MINUTE(D22)-MINUTE(C22)+60,MINUTE(D22)-MINUTE(C22))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23" s="2">
-        <v>40574</v>
+        <v>40573</v>
       </c>
       <c r="C23" s="14">
         <v>0.375</v>
       </c>
       <c r="D23" s="14">
-        <v>0.77083333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="12">
+        <f t="shared" ref="F23" si="6">IF(MINUTE(C23)&lt;=MINUTE(D23),IF(E23="NO",HOUR(D23)-HOUR(C23),HOUR(D23)-HOUR(C23)-1),IF(E23="NO",HOUR(D23)-HOUR(C23)-1,HOUR(D23)-HOUR(C23)-1-1))</f>
+        <v>10</v>
+      </c>
+      <c r="G23" s="12">
+        <f t="shared" ref="G23" si="7">IF(MINUTE(D23)-MINUTE(C23)&lt;0,MINUTE(D23)-MINUTE(C23)+60,MINUTE(D23)-MINUTE(C23))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="2">
+        <v>40574</v>
+      </c>
+      <c r="C24" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="D24" s="14">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="12">
         <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="G23" s="12">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E25" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="13">
-        <f>SUM(F2:F23)</f>
+      <c r="F25" s="13">
+        <f>SUM(F2:F24)</f>
         <v>169</v>
       </c>
-      <c r="G24" s="10">
-        <f>SUM(G2:G23)/60</f>
+      <c r="G25" s="10">
+        <f>SUM(G2:G24)/60</f>
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E25" s="4" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="16">
-        <f>ROUND(SUM(F24:G24),0)</f>
+      <c r="F26" s="16">
+        <f>ROUND(SUM(F25:G25),0)</f>
         <v>176</v>
       </c>
-      <c r="G25" s="17"/>
+      <c r="G26" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Horas/Enero 2012.xlsx
+++ b/Horas/Enero 2012.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="17">
   <si>
     <t>Fecha</t>
   </si>
@@ -66,7 +66,7 @@
     <t>-</t>
   </si>
   <si>
-    <t>Sábado</t>
+    <t>SI</t>
   </si>
 </sst>
 </file>
@@ -218,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -247,6 +247,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -556,7 +559,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -611,7 +614,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="12">
-        <f t="shared" ref="G2:G24" si="1">IF(MINUTE(D2)-MINUTE(C2)&lt;0,MINUTE(D2)-MINUTE(C2)+60,MINUTE(D2)-MINUTE(C2))</f>
+        <f t="shared" ref="G2:G23" si="1">IF(MINUTE(D2)-MINUTE(C2)&lt;0,MINUTE(D2)-MINUTE(C2)+60,MINUTE(D2)-MINUTE(C2))</f>
         <v>0</v>
       </c>
     </row>
@@ -837,7 +840,7 @@
         <v>13</v>
       </c>
       <c r="F11" s="12">
-        <f t="shared" ref="F11:F24" si="3">IF(MINUTE(C11)&lt;=MINUTE(D11),IF(E11="NO",HOUR(D11)-HOUR(C11),HOUR(D11)-HOUR(C11)-1),IF(E11="NO",HOUR(D11)-HOUR(C11)-1,HOUR(D11)-HOUR(C11)-1-1))</f>
+        <f t="shared" ref="F11:F23" si="3">IF(MINUTE(C11)&lt;=MINUTE(D11),IF(E11="NO",HOUR(D11)-HOUR(C11),HOUR(D11)-HOUR(C11)-1),IF(E11="NO",HOUR(D11)-HOUR(C11)-1,HOUR(D11)-HOUR(C11)-1-1))</f>
         <v>7</v>
       </c>
       <c r="G11" s="12">
@@ -1026,10 +1029,10 @@
         <v>40568</v>
       </c>
       <c r="C19" s="14">
-        <v>0.375</v>
+        <v>0.40972222222222227</v>
       </c>
       <c r="D19" s="14">
-        <v>0.625</v>
+        <v>0.68055555555555547</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>13</v>
@@ -1040,7 +1043,7 @@
       </c>
       <c r="G19" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1051,21 +1054,21 @@
         <v>40569</v>
       </c>
       <c r="C20" s="14">
-        <v>0.375</v>
+        <v>0.40972222222222227</v>
       </c>
       <c r="D20" s="14">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>13</v>
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="F20" s="12">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G20" s="12">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1076,42 +1079,42 @@
         <v>40570</v>
       </c>
       <c r="C21" s="14">
-        <v>0.375</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="D21" s="14">
-        <v>0.79166666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="12">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G21" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B22" s="2">
-        <v>40571</v>
+        <v>40573</v>
       </c>
       <c r="C22" s="14">
-        <v>0.375</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D22" s="14">
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="12">
         <f t="shared" ref="F22" si="4">IF(MINUTE(C22)&lt;=MINUTE(D22),IF(E22="NO",HOUR(D22)-HOUR(C22),HOUR(D22)-HOUR(C22)-1),IF(E22="NO",HOUR(D22)-HOUR(C22)-1,HOUR(D22)-HOUR(C22)-1-1))</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G22" s="12">
         <f t="shared" ref="G22" si="5">IF(MINUTE(D22)-MINUTE(C22)&lt;0,MINUTE(D22)-MINUTE(C22)+60,MINUTE(D22)-MINUTE(C22))</f>
@@ -1120,80 +1123,55 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="2">
+        <v>40574</v>
+      </c>
+      <c r="C23" s="14">
+        <v>0.4375</v>
+      </c>
+      <c r="D23" s="14">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="12">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="B23" s="2">
-        <v>40573</v>
-      </c>
-      <c r="C23" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D23" s="14">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="12">
-        <f t="shared" ref="F23" si="6">IF(MINUTE(C23)&lt;=MINUTE(D23),IF(E23="NO",HOUR(D23)-HOUR(C23),HOUR(D23)-HOUR(C23)-1),IF(E23="NO",HOUR(D23)-HOUR(C23)-1,HOUR(D23)-HOUR(C23)-1-1))</f>
-        <v>10</v>
-      </c>
       <c r="G23" s="12">
-        <f t="shared" ref="G23" si="7">IF(MINUTE(D23)-MINUTE(C23)&lt;0,MINUTE(D23)-MINUTE(C23)+60,MINUTE(D23)-MINUTE(C23))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="2">
-        <v>40574</v>
-      </c>
-      <c r="C24" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D24" s="14">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="12">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="G24" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="13">
+        <f>SUM(F2:F23)</f>
+        <v>145</v>
+      </c>
+      <c r="G24" s="10">
+        <f>SUM(G2:G23)/60</f>
+        <v>7.5</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E25" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="13">
-        <f>SUM(F2:F24)</f>
-        <v>169</v>
-      </c>
-      <c r="G25" s="10">
-        <f>SUM(G2:G24)/60</f>
-        <v>6.666666666666667</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E26" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="16">
-        <f>ROUND(SUM(F25:G25),0)</f>
-        <v>176</v>
-      </c>
-      <c r="G26" s="17"/>
+      <c r="F25" s="17">
+        <f>ROUND(SUM(F24:G24),0)</f>
+        <v>153</v>
+      </c>
+      <c r="G25" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F25:G25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
